--- a/ELISAs/IL-8 Test ELISA.xlsx
+++ b/ELISAs/IL-8 Test ELISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/ELISAs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{904309DD-9B80-44D1-B494-CE1FA357DFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A90A0675-C25E-4F94-9DDF-C8D6BE6555FF}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{904309DD-9B80-44D1-B494-CE1FA357DFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E9A78F-3DC6-4D79-A97B-DC49370F66CD}"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="1980" windowWidth="19035" windowHeight="14880" activeTab="1" xr2:uid="{D11ACC27-512E-41F5-9D81-B2DA06F47BD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D11ACC27-512E-41F5-9D81-B2DA06F47BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="End point" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>User: USER</t>
   </si>
@@ -90,39 +90,12 @@
     <t>H</t>
   </si>
   <si>
-    <t>HP5</t>
-  </si>
-  <si>
-    <t>HO5</t>
-  </si>
-  <si>
-    <t>HC5</t>
-  </si>
-  <si>
-    <t>LP5</t>
-  </si>
-  <si>
-    <t>LO5</t>
-  </si>
-  <si>
-    <t>LC5</t>
-  </si>
-  <si>
-    <t>HP3</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>HO3</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
-    <t>HC3</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -144,40 +117,37 @@
     <t>y = ax*x +bx+c</t>
   </si>
   <si>
-    <t>LO3</t>
-  </si>
-  <si>
-    <t>LC3</t>
-  </si>
-  <si>
-    <t>HP1</t>
-  </si>
-  <si>
-    <t>HO1</t>
-  </si>
-  <si>
-    <t>HC1</t>
-  </si>
-  <si>
-    <t>LP1</t>
-  </si>
-  <si>
-    <t>LO1</t>
-  </si>
-  <si>
     <t>LC1</t>
   </si>
   <si>
-    <t>Average Protein (mg/mL)</t>
-  </si>
-  <si>
-    <t>Diluted Average Protein (mg/mL)</t>
-  </si>
-  <si>
-    <t>protein mg/ml</t>
-  </si>
-  <si>
     <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Avg-blank</t>
+  </si>
+  <si>
+    <t>Average CK- 18 pg/ml</t>
+  </si>
+  <si>
+    <t>C1 D7</t>
+  </si>
+  <si>
+    <t>LPS2</t>
+  </si>
+  <si>
+    <t>C1 D7 Dilution</t>
+  </si>
+  <si>
+    <t>LC1 Dilution</t>
+  </si>
+  <si>
+    <t>LP3 Dilution</t>
+  </si>
+  <si>
+    <t>LPS2 Dilution</t>
+  </si>
+  <si>
+    <t>Dilute 1:4</t>
   </si>
 </sst>
 </file>
@@ -301,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,6 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +388,22 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -457,6 +443,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8435000000000001</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>2.5315000000000003</c:v>
                 </c:pt>
@@ -1369,16 +1358,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2005,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF424EE0-4AEA-451B-85A5-D9F2A953AC78}">
-  <dimension ref="C1:W20"/>
+  <dimension ref="C1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,12 +2019,12 @@
     <col min="23" max="23" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E1">
         <v>3</v>
@@ -2068,7 +2057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>2.7130000000000001</v>
       </c>
@@ -2082,22 +2071,19 @@
         <v>3.2530000000000001</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2.5</v>
       </c>
@@ -2111,32 +2097,28 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="R3">
-        <v>0.23499999999999999</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="S3">
-        <v>0.22</v>
+        <v>3.5</v>
       </c>
       <c r="T3">
-        <f>$N$12*(R3*R3)+$N$13*(R3)+$N$14</f>
-        <v>1.2761821824999999</v>
+        <f>AVERAGE(R3:S3)</f>
+        <v>3.4924999999999997</v>
       </c>
       <c r="U3">
-        <f>$N$12*(S3*S3)+$N$13*(S3)+$N$14</f>
-        <v>1.18660948</v>
+        <f>T3-$G$20</f>
+        <v>2.7294999999999998</v>
       </c>
       <c r="V3">
-        <f>AVERAGE(T3:U3)</f>
-        <v>1.23139583125</v>
-      </c>
-      <c r="W3">
-        <f>V3*5</f>
-        <v>6.1569791562499994</v>
-      </c>
-    </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V3:V10" si="0">$N$12*(U3*U3)+$N$13*(U3)+$N$14</f>
+        <v>1474.8961277899998</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>3.4660000000000002</v>
       </c>
@@ -2153,32 +2135,28 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="R4">
-        <v>0.224</v>
+        <v>2.86</v>
       </c>
       <c r="S4">
-        <v>0.23599999999999999</v>
+        <v>3.3809999999999998</v>
       </c>
       <c r="T4">
-        <f>$N$12*(R4*R4)+$N$13*(R4)+$N$14</f>
-        <v>1.2103780672</v>
+        <f t="shared" ref="T4:T10" si="1">AVERAGE(R4:S4)</f>
+        <v>3.1204999999999998</v>
       </c>
       <c r="U4">
-        <f>$N$12*(S4*S4)+$N$13*(S4)+$N$14</f>
-        <v>1.2821964111999999</v>
+        <f t="shared" ref="U4:U10" si="2">T4-$G$20</f>
+        <v>2.3574999999999999</v>
       </c>
       <c r="V4">
-        <f>AVERAGE(T4:U4)</f>
-        <v>1.2462872392</v>
-      </c>
-      <c r="W4">
-        <f>V4*5</f>
-        <v>6.2314361959999998</v>
-      </c>
-    </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>934.05897274999995</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3.1230000000000002</v>
       </c>
@@ -2195,32 +2173,28 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="Q5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="R5">
-        <v>0.20599999999999999</v>
+        <v>3.355</v>
       </c>
       <c r="S5">
-        <v>0.217</v>
+        <v>3.254</v>
       </c>
       <c r="T5">
-        <f>$N$12*(R5*R5)+$N$13*(R5)+$N$14</f>
-        <v>1.1040921892</v>
+        <f t="shared" si="1"/>
+        <v>3.3045</v>
       </c>
       <c r="U5">
-        <f>$N$12*(S5*S5)+$N$13*(S5)+$N$14</f>
-        <v>1.1688391033000001</v>
+        <f t="shared" si="2"/>
+        <v>2.5415000000000001</v>
       </c>
       <c r="V5">
-        <f>AVERAGE(T5:U5)</f>
-        <v>1.13646564625</v>
-      </c>
-      <c r="W5">
-        <f>V5*5</f>
-        <v>5.6823282312500005</v>
-      </c>
-    </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1187.5130185100006</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3.3620000000000001</v>
       </c>
@@ -2237,32 +2211,28 @@
         <v>0.21</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R6">
-        <v>0.22600000000000001</v>
+        <v>3.4809999999999999</v>
       </c>
       <c r="S6">
-        <v>0.22</v>
+        <v>3.5</v>
       </c>
       <c r="T6">
-        <f>$N$12*(R6*R6)+$N$13*(R6)+$N$14</f>
-        <v>1.2222943972</v>
+        <f t="shared" si="1"/>
+        <v>3.4904999999999999</v>
       </c>
       <c r="U6">
-        <f>$N$12*(S6*S6)+$N$13*(S6)+$N$14</f>
-        <v>1.18660948</v>
+        <f t="shared" si="2"/>
+        <v>2.7275</v>
       </c>
       <c r="V6">
-        <f>AVERAGE(T6:U6)</f>
-        <v>1.2044519386000001</v>
-      </c>
-      <c r="W6">
-        <f>V6*5</f>
-        <v>6.0222596930000005</v>
-      </c>
-    </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1471.6876947500004</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3.3490000000000002</v>
       </c>
@@ -2279,32 +2249,28 @@
         <v>0.219</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R7">
-        <v>0.222</v>
+        <v>3.2530000000000001</v>
       </c>
       <c r="S7">
-        <v>0.23400000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="T7">
-        <f>$N$12*(R7*R7)+$N$13*(R7)+$N$14</f>
-        <v>1.1984830948</v>
+        <f t="shared" si="1"/>
+        <v>3.3765000000000001</v>
       </c>
       <c r="U7">
-        <f>$N$12*(S7*S7)+$N$13*(S7)+$N$14</f>
-        <v>1.2701732932000001</v>
+        <f t="shared" si="2"/>
+        <v>2.6135000000000002</v>
       </c>
       <c r="V7">
-        <f>AVERAGE(T7:U7)</f>
-        <v>1.2343281940000002</v>
-      </c>
-      <c r="W7">
-        <f>V7*5</f>
-        <v>6.1716409700000003</v>
-      </c>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1294.1807161100005</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2.9020000000000001</v>
       </c>
@@ -2318,32 +2284,28 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R8">
-        <v>0.23400000000000001</v>
+        <v>3.403</v>
       </c>
       <c r="S8">
-        <v>0.24299999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="T8">
-        <f>$N$12*(R8*R8)+$N$13*(R8)+$N$14</f>
-        <v>1.2701732932000001</v>
+        <f t="shared" si="1"/>
+        <v>3.3514999999999997</v>
       </c>
       <c r="U8">
-        <f>$N$12*(S8*S8)+$N$13*(S8)+$N$14</f>
-        <v>1.3244455152999999</v>
+        <f t="shared" si="2"/>
+        <v>2.5884999999999998</v>
       </c>
       <c r="V8">
-        <f>AVERAGE(T8:U8)</f>
-        <v>1.29730940425</v>
-      </c>
-      <c r="W8">
-        <f>V8*5</f>
-        <v>6.4865470212499998</v>
-      </c>
-    </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1256.6658481099998</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2.7450000000000001</v>
       </c>
@@ -2357,137 +2319,79 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R9">
-        <v>0.248</v>
+        <v>3.331</v>
       </c>
       <c r="S9">
-        <v>0.24299999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="T9">
-        <f>$N$12*(R9*R9)+$N$13*(R9)+$N$14</f>
-        <v>1.3547836287999999</v>
+        <f t="shared" si="1"/>
+        <v>3.4154999999999998</v>
       </c>
       <c r="U9">
-        <f>$N$12*(S9*S9)+$N$13*(S9)+$N$14</f>
-        <v>1.3244455152999999</v>
+        <f t="shared" si="2"/>
+        <v>2.6524999999999999</v>
       </c>
       <c r="V9">
-        <f>AVERAGE(T9:U9)</f>
-        <v>1.3396145720499999</v>
-      </c>
-      <c r="W9">
-        <f>V9*5</f>
-        <v>6.698072860249999</v>
-      </c>
-    </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1353.7181847500003</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
         <v>35</v>
       </c>
       <c r="R10">
-        <v>0.24299999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="S10">
-        <v>0.23799999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="T10">
-        <f>$N$12*(R10*R10)+$N$13*(R10)+$N$14</f>
-        <v>1.3244455152999999</v>
+        <f t="shared" si="1"/>
+        <v>3.5</v>
       </c>
       <c r="U10">
-        <f>$N$12*(S10*S10)+$N$13*(S10)+$N$14</f>
-        <v>1.2942408867999999</v>
+        <f t="shared" si="2"/>
+        <v>2.7370000000000001</v>
       </c>
       <c r="V10">
-        <f>AVERAGE(T10:U10)</f>
-        <v>1.3093432010499999</v>
-      </c>
-      <c r="W10">
-        <f>V10*5</f>
-        <v>6.5467160052499995</v>
-      </c>
-    </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1486.9567048400002</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
       <c r="N11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="S11">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="T11">
-        <f>$N$12*(R11*R11)+$N$13*(R11)+$N$14</f>
-        <v>1.1040921892</v>
-      </c>
-      <c r="U11">
-        <f>$N$12*(S11*S11)+$N$13*(S11)+$N$14</f>
-        <v>1.2342320848000001</v>
-      </c>
-      <c r="V11">
-        <f>AVERAGE(T11:U11)</f>
-        <v>1.169162137</v>
-      </c>
-      <c r="W11">
-        <f>V11*5</f>
-        <v>5.845810685</v>
-      </c>
-    </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N12">
-        <v>2.6697000000000002</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="S12">
-        <v>0.27</v>
-      </c>
-      <c r="T12">
-        <f>$N$12*(R12*R12)+$N$13*(R12)+$N$14</f>
-        <v>1.2882159792999999</v>
-      </c>
-      <c r="U12">
-        <f>$N$12*(S12*S12)+$N$13*(S12)+$N$14</f>
-        <v>1.4898571300000001</v>
-      </c>
-      <c r="V12">
-        <f>AVERAGE(T12:U12)</f>
-        <v>1.3890365546500001</v>
-      </c>
-      <c r="W12">
-        <f>V12*5</f>
-        <v>6.94518277325</v>
-      </c>
-    </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+        <v>406.36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>2.7130000000000001</v>
       </c>
@@ -2495,42 +2399,21 @@
         <v>2.5</v>
       </c>
       <c r="G13">
-        <f>AVERAGE(E13:F13)</f>
+        <f t="shared" ref="G13:G20" si="3">AVERAGE(E13:F13)</f>
         <v>2.6065</v>
       </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H20" si="4">G13-$G$20</f>
+        <v>1.8435000000000001</v>
+      </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N13">
-        <v>4.7568000000000001</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13">
-        <v>0.245</v>
-      </c>
-      <c r="S13">
-        <v>0.252</v>
-      </c>
-      <c r="T13">
-        <f>$N$12*(R13*R13)+$N$13*(R13)+$N$14</f>
-        <v>1.3365647424999998</v>
-      </c>
-      <c r="U13">
-        <f>$N$12*(S13*S13)+$N$13*(S13)+$N$14</f>
-        <v>1.3791502287999999</v>
-      </c>
-      <c r="V13">
-        <f>AVERAGE(T13:U13)</f>
-        <v>1.3578574856499999</v>
-      </c>
-      <c r="W13">
-        <f>V13*5</f>
-        <v>6.7892874282499989</v>
-      </c>
-    </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+        <v>-613.29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>3.4660000000000002</v>
       </c>
@@ -2538,49 +2421,24 @@
         <v>3.1230000000000002</v>
       </c>
       <c r="G14">
-        <f>AVERAGE(E14:F14)</f>
+        <f t="shared" si="3"/>
         <v>3.2945000000000002</v>
       </c>
       <c r="H14">
-        <f>G14-$G$20</f>
+        <f t="shared" si="4"/>
         <v>2.5315000000000003</v>
       </c>
       <c r="I14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N14">
-        <v>1.09E-2</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="S14">
-        <v>0.25</v>
-      </c>
-      <c r="T14">
-        <f>$N$12*(R14*R14)+$N$13*(R14)+$N$14</f>
-        <v>1.2282605713000001</v>
-      </c>
-      <c r="U14">
-        <f>$N$12*(S14*S14)+$N$13*(S14)+$N$14</f>
-        <v>1.3669562499999999</v>
-      </c>
-      <c r="V14">
-        <f>AVERAGE(T14:U14)</f>
-        <v>1.2976084106500001</v>
-      </c>
-      <c r="W14">
-        <f>V14*5</f>
-        <v>6.4880420532500001</v>
-      </c>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+        <v>121.42</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>3.3620000000000001</v>
       </c>
@@ -2588,43 +2446,18 @@
         <v>3.3490000000000002</v>
       </c>
       <c r="G15">
-        <f>AVERAGE(E15:F15)</f>
+        <f t="shared" si="3"/>
         <v>3.3555000000000001</v>
       </c>
       <c r="H15">
-        <f>G15-$G$20</f>
+        <f t="shared" si="4"/>
         <v>2.5925000000000002</v>
       </c>
       <c r="I15">
         <v>1000</v>
       </c>
-      <c r="Q15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="S15">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="T15">
-        <f>$N$12*(R15*R15)+$N$13*(R15)+$N$14</f>
-        <v>1.3123476456999998</v>
-      </c>
-      <c r="U15">
-        <f>$N$12*(S15*S15)+$N$13*(S15)+$N$14</f>
-        <v>1.2942408867999999</v>
-      </c>
-      <c r="V15">
-        <f>AVERAGE(T15:U15)</f>
-        <v>1.30329426625</v>
-      </c>
-      <c r="W15">
-        <f>V15*5</f>
-        <v>6.51647133125</v>
-      </c>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>2.9020000000000001</v>
       </c>
@@ -2632,43 +2465,18 @@
         <v>2.7450000000000001</v>
       </c>
       <c r="G16">
-        <f>AVERAGE(E16:F16)</f>
+        <f t="shared" si="3"/>
         <v>2.8235000000000001</v>
       </c>
       <c r="H16">
-        <f>G16-$G$20</f>
+        <f t="shared" si="4"/>
         <v>2.0605000000000002</v>
       </c>
       <c r="I16">
         <v>500</v>
       </c>
-      <c r="Q16" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="S16">
-        <v>0.219</v>
-      </c>
-      <c r="T16">
-        <f>$N$12*(R16*R16)+$N$13*(R16)+$N$14</f>
-        <v>1.2342320848000001</v>
-      </c>
-      <c r="U16">
-        <f>$N$12*(S16*S16)+$N$13*(S16)+$N$14</f>
-        <v>1.1806806817</v>
-      </c>
-      <c r="V16">
-        <f>AVERAGE(T16:U16)</f>
-        <v>1.20745638325</v>
-      </c>
-      <c r="W16">
-        <f>V16*5</f>
-        <v>6.0372819162500004</v>
-      </c>
-    </row>
-    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>3.3239999999999998</v>
       </c>
@@ -2676,43 +2484,29 @@
         <v>2.8420000000000001</v>
       </c>
       <c r="G17">
-        <f>AVERAGE(E17:F17)</f>
+        <f t="shared" si="3"/>
         <v>3.0830000000000002</v>
       </c>
       <c r="H17">
-        <f>G17-$G$20</f>
+        <f t="shared" si="4"/>
         <v>2.3200000000000003</v>
       </c>
       <c r="I17">
         <v>250</v>
       </c>
-      <c r="Q17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="S17">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="T17">
-        <f>$N$12*(R17*R17)+$N$13*(R17)+$N$14</f>
-        <v>1.1393285968</v>
-      </c>
-      <c r="U17">
-        <f>$N$12*(S17*S17)+$N$13*(S17)+$N$14</f>
-        <v>1.2342320848000001</v>
-      </c>
-      <c r="V17">
-        <f>AVERAGE(T17:U17)</f>
-        <v>1.1867803407999999</v>
-      </c>
-      <c r="W17">
-        <f>V17*5</f>
-        <v>5.9339017040000002</v>
-      </c>
-    </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f>MAX(U3:U10)</f>
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="Q17">
+        <f>MIN(U3:U10)</f>
+        <v>2.3574999999999999</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>1.8380000000000001</v>
       </c>
@@ -2720,43 +2514,18 @@
         <v>1.9950000000000001</v>
       </c>
       <c r="G18">
-        <f>AVERAGE(E18:F18)</f>
+        <f t="shared" si="3"/>
         <v>1.9165000000000001</v>
       </c>
       <c r="H18">
-        <f>G18-$G$20</f>
+        <f t="shared" si="4"/>
         <v>1.1535000000000002</v>
       </c>
       <c r="I18">
         <v>125</v>
       </c>
-      <c r="Q18" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="S18">
-        <v>0.224</v>
-      </c>
-      <c r="T18">
-        <f>$N$12*(R18*R18)+$N$13*(R18)+$N$14</f>
-        <v>1.3305024591999999</v>
-      </c>
-      <c r="U18">
-        <f>$N$12*(S18*S18)+$N$13*(S18)+$N$14</f>
-        <v>1.2103780672</v>
-      </c>
-      <c r="V18">
-        <f>AVERAGE(T18:U18)</f>
-        <v>1.2704402631999998</v>
-      </c>
-      <c r="W18">
-        <f>V18*5</f>
-        <v>6.3522013159999986</v>
-      </c>
-    </row>
-    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>1.18</v>
       </c>
@@ -2764,43 +2533,18 @@
         <v>1.0429999999999999</v>
       </c>
       <c r="G19">
-        <f>AVERAGE(E19:F19)</f>
+        <f t="shared" si="3"/>
         <v>1.1114999999999999</v>
       </c>
       <c r="H19">
-        <f>G19-$G$20</f>
+        <f t="shared" si="4"/>
         <v>0.34849999999999992</v>
       </c>
       <c r="I19">
         <v>62.5</v>
       </c>
-      <c r="Q19" t="s">
-        <v>18</v>
-      </c>
-      <c r="R19">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="S19">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="T19">
-        <f>$N$12*(R19*R19)+$N$13*(R19)+$N$14</f>
-        <v>1.3183939107999998</v>
-      </c>
-      <c r="U19">
-        <f>$N$12*(S19*S19)+$N$13*(S19)+$N$14</f>
-        <v>1.3244455152999999</v>
-      </c>
-      <c r="V19">
-        <f>AVERAGE(T19:U19)</f>
-        <v>1.3214197130499998</v>
-      </c>
-      <c r="W19">
-        <f>V19*5</f>
-        <v>6.6070985652499994</v>
-      </c>
-    </row>
-    <row r="20" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>0.85699999999999998</v>
       </c>
@@ -2808,40 +2552,25 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="G20">
-        <f>AVERAGE(E20:F20)</f>
+        <f t="shared" si="3"/>
         <v>0.76300000000000001</v>
       </c>
       <c r="H20">
-        <f>G20-$G$20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20">
-        <v>0.21</v>
-      </c>
-      <c r="S20">
-        <v>0.219</v>
-      </c>
-      <c r="T20">
-        <f>$N$12*(R20*R20)+$N$13*(R20)+$N$14</f>
-        <v>1.12756177</v>
-      </c>
-      <c r="U20">
-        <f>$N$12*(S20*S20)+$N$13*(S20)+$N$14</f>
-        <v>1.1806806817</v>
-      </c>
-      <c r="V20">
-        <f>AVERAGE(T20:U20)</f>
-        <v>1.15412122585</v>
-      </c>
-      <c r="W20">
-        <f>V20*5</f>
-        <v>5.7706061292499999</v>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f>MAX(H13:H19)</f>
+        <v>2.5925000000000002</v>
+      </c>
+      <c r="F22">
+        <f>MIN(H13:H19)</f>
+        <v>0.34849999999999992</v>
       </c>
     </row>
   </sheetData>
